--- a/state_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
+++ b/state_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U215"/>
+  <dimension ref="A1:U235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,7 +651,7 @@
         <v>0.021</v>
       </c>
       <c r="G3" t="n">
-        <v>0.141972508363977</v>
+        <v>0.141973622527971</v>
       </c>
       <c r="H3" t="n">
         <v>1.725</v>
@@ -732,7 +732,7 @@
         <v>0.021</v>
       </c>
       <c r="G4" t="n">
-        <v>0.141972508363977</v>
+        <v>0.141973622527971</v>
       </c>
       <c r="H4" t="n">
         <v>1.725</v>
@@ -1153,7 +1153,7 @@
         <v>0.04573</v>
       </c>
       <c r="G9" t="n">
-        <v>0.327064216396526</v>
+        <v>0.327068379392869</v>
       </c>
       <c r="H9" t="n">
         <v>4.12369941731524</v>
@@ -1234,7 +1234,7 @@
         <v>0.04573</v>
       </c>
       <c r="G10" t="n">
-        <v>0.327064216396526</v>
+        <v>0.327068379392869</v>
       </c>
       <c r="H10" t="n">
         <v>4.12369941731524</v>
@@ -2101,7 +2101,7 @@
         <v>0.021</v>
       </c>
       <c r="G21" t="n">
-        <v>0.105082099120996</v>
+        <v>0.105083193027463</v>
       </c>
       <c r="H21" t="n">
         <v>1.58</v>
@@ -2182,7 +2182,7 @@
         <v>0.021</v>
       </c>
       <c r="G22" t="n">
-        <v>0.105082099120996</v>
+        <v>0.105083193027463</v>
       </c>
       <c r="H22" t="n">
         <v>1.58</v>
@@ -2603,7 +2603,7 @@
         <v>0.0447</v>
       </c>
       <c r="G27" t="n">
-        <v>0.195826997835173</v>
+        <v>0.195831083738992</v>
       </c>
       <c r="H27" t="n">
         <v>3.49551525960451</v>
@@ -2684,7 +2684,7 @@
         <v>0.0447</v>
       </c>
       <c r="G28" t="n">
-        <v>0.195826997835173</v>
+        <v>0.195831083738992</v>
       </c>
       <c r="H28" t="n">
         <v>3.49551525960451</v>
@@ -3551,7 +3551,7 @@
         <v>0.021</v>
       </c>
       <c r="G39" t="n">
-        <v>0.052009204493835</v>
+        <v>0.0520102788662579</v>
       </c>
       <c r="H39" t="n">
         <v>1.49</v>
@@ -3632,7 +3632,7 @@
         <v>0.021</v>
       </c>
       <c r="G40" t="n">
-        <v>0.052009204493835</v>
+        <v>0.0520102788662579</v>
       </c>
       <c r="H40" t="n">
         <v>1.49</v>
@@ -4053,7 +4053,7 @@
         <v>0.03647</v>
       </c>
       <c r="G45" t="n">
-        <v>0.124499832899444</v>
+        <v>0.124502475536285</v>
       </c>
       <c r="H45" t="n">
         <v>3.49551525960451</v>
@@ -4134,7 +4134,7 @@
         <v>0.03647</v>
       </c>
       <c r="G46" t="n">
-        <v>0.124499832899444</v>
+        <v>0.124502475536285</v>
       </c>
       <c r="H46" t="n">
         <v>3.49551525960451</v>
@@ -4920,13 +4920,13 @@
         <v>1.575</v>
       </c>
       <c r="G56" t="n">
-        <v>1.57616136541368</v>
+        <v>1.59049282410642</v>
       </c>
       <c r="H56" t="n">
-        <v>3.7</v>
+        <v>3.8926699088953</v>
       </c>
       <c r="I56" t="n">
-        <v>3.29674</v>
+        <v>3.58</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -5001,7 +5001,7 @@
         <v>0.021</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0250013449039353</v>
+        <v>0.0250017780480228</v>
       </c>
       <c r="H57" t="n">
         <v>0.08</v>
@@ -5082,7 +5082,7 @@
         <v>0.021</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0250013449039353</v>
+        <v>0.0250017780480228</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
@@ -5503,7 +5503,7 @@
         <v>0.04183</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0646054650516832</v>
+        <v>0.06461159506316561</v>
       </c>
       <c r="H63" t="n">
         <v>0.376677292942166</v>
@@ -5514,7 +5514,7 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
-        <v>0.00991</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="M63" t="n">
         <v>0.1123</v>
@@ -5584,7 +5584,7 @@
         <v>0.04183</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0646054650516832</v>
+        <v>0.06461159506316561</v>
       </c>
       <c r="H64" t="n">
         <v>0.376677292942166</v>
@@ -5595,7 +5595,7 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
-        <v>0.00991</v>
+        <v>0.009939999999999999</v>
       </c>
       <c r="M64" t="n">
         <v>0.1123</v>
@@ -5665,7 +5665,7 @@
         <v>0.139</v>
       </c>
       <c r="G65" t="n">
-        <v>0.144289202506604</v>
+        <v>0.1443093035137</v>
       </c>
       <c r="H65" t="n">
         <v>0.4278</v>
@@ -5746,7 +5746,7 @@
         <v>0.139</v>
       </c>
       <c r="G66" t="n">
-        <v>0.144289202506604</v>
+        <v>0.1443093035137</v>
       </c>
       <c r="H66" t="n">
         <v>0.4278</v>
@@ -5823,7 +5823,7 @@
         <v>0.228</v>
       </c>
       <c r="G67" t="n">
-        <v>0.237383916339246</v>
+        <v>0.237407832980005</v>
       </c>
       <c r="H67" t="n">
         <v>0.662</v>
@@ -5900,7 +5900,7 @@
         <v>0.228</v>
       </c>
       <c r="G68" t="n">
-        <v>0.237383916339246</v>
+        <v>0.237407832980005</v>
       </c>
       <c r="H68" t="n">
         <v>0.662</v>
@@ -6370,13 +6370,13 @@
         <v>1.55</v>
       </c>
       <c r="G74" t="n">
-        <v>1.59147708104318</v>
+        <v>1.60550361508288</v>
       </c>
       <c r="H74" t="n">
-        <v>3.7</v>
+        <v>3.8926699088953</v>
       </c>
       <c r="I74" t="n">
-        <v>3.28091</v>
+        <v>3.5725</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -6451,7 +6451,7 @@
         <v>0.0205</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0235013217159364</v>
+        <v>0.0235017473920224</v>
       </c>
       <c r="H75" t="n">
         <v>0.08</v>
@@ -6532,7 +6532,7 @@
         <v>0.0205</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0235013217159364</v>
+        <v>0.0235017473920224</v>
       </c>
       <c r="H76" t="n">
         <v>0.08</v>
@@ -7030,7 +7030,7 @@
         <v>0.02114</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0489905385599741</v>
+        <v>0.0490066694671335</v>
       </c>
       <c r="H82" t="n">
         <v>0.376677292942166</v>
@@ -7041,7 +7041,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.00185</v>
+        <v>0.00195</v>
       </c>
       <c r="M82" t="n">
         <v>0.09154</v>
@@ -7111,7 +7111,7 @@
         <v>0.02114</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0489905385599741</v>
+        <v>0.0490066694671335</v>
       </c>
       <c r="H83" t="n">
         <v>0.376677292942166</v>
@@ -7122,7 +7122,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
-        <v>0.00185</v>
+        <v>0.00195</v>
       </c>
       <c r="M83" t="n">
         <v>0.09154</v>
@@ -7192,7 +7192,7 @@
         <v>0.13365</v>
       </c>
       <c r="G84" t="n">
-        <v>0.143491112808214</v>
+        <v>0.143510867246223</v>
       </c>
       <c r="H84" t="n">
         <v>0.533</v>
@@ -7273,7 +7273,7 @@
         <v>0.13365</v>
       </c>
       <c r="G85" t="n">
-        <v>0.143491112808214</v>
+        <v>0.143510867246223</v>
       </c>
       <c r="H85" t="n">
         <v>0.533</v>
@@ -7350,7 +7350,7 @@
         <v>0.1875</v>
       </c>
       <c r="G86" t="n">
-        <v>0.215273848816156</v>
+        <v>0.215297353101039</v>
       </c>
       <c r="H86" t="n">
         <v>0.6</v>
@@ -7427,7 +7427,7 @@
         <v>0.1875</v>
       </c>
       <c r="G87" t="n">
-        <v>0.215273848816156</v>
+        <v>0.215297353101039</v>
       </c>
       <c r="H87" t="n">
         <v>0.6</v>
@@ -7974,13 +7974,13 @@
         <v>1.6</v>
       </c>
       <c r="G94" t="n">
-        <v>1.59798557022573</v>
+        <v>1.61446674772238</v>
       </c>
       <c r="H94" t="n">
-        <v>3.7</v>
+        <v>3.8926699088953</v>
       </c>
       <c r="I94" t="n">
-        <v>3.39171</v>
+        <v>3.625</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -7991,7 +7991,7 @@
         <v>2.247</v>
       </c>
       <c r="N94" t="n">
-        <v>3.20023</v>
+        <v>3.2952</v>
       </c>
       <c r="O94" t="n">
         <v>1805147.179</v>
@@ -8634,7 +8634,7 @@
         <v>0.01816</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0393197035388551</v>
+        <v>0.0393374148921327</v>
       </c>
       <c r="H102" t="n">
         <v>0.230905674910661</v>
@@ -8645,7 +8645,7 @@
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
-        <v>0.00185</v>
+        <v>0.00195</v>
       </c>
       <c r="M102" t="n">
         <v>0.08636000000000001</v>
@@ -8715,7 +8715,7 @@
         <v>0.01816</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0393197035388551</v>
+        <v>0.0393374148921327</v>
       </c>
       <c r="H103" t="n">
         <v>0.230905674910661</v>
@@ -8726,7 +8726,7 @@
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
-        <v>0.00185</v>
+        <v>0.00195</v>
       </c>
       <c r="M103" t="n">
         <v>0.08636000000000001</v>
@@ -8796,7 +8796,7 @@
         <v>0.14345</v>
       </c>
       <c r="G104" t="n">
-        <v>0.155208075714607</v>
+        <v>0.155227171671349</v>
       </c>
       <c r="H104" t="n">
         <v>0.533</v>
@@ -8877,7 +8877,7 @@
         <v>0.14345</v>
       </c>
       <c r="G105" t="n">
-        <v>0.155208075714607</v>
+        <v>0.155227171671349</v>
       </c>
       <c r="H105" t="n">
         <v>0.533</v>
@@ -9031,7 +9031,7 @@
         <v>0.197</v>
       </c>
       <c r="G107" t="n">
-        <v>0.223998053855617</v>
+        <v>0.224020774664338</v>
       </c>
       <c r="H107" t="n">
         <v>0.6</v>
@@ -9108,7 +9108,7 @@
         <v>0.197</v>
       </c>
       <c r="G108" t="n">
-        <v>0.223998053855617</v>
+        <v>0.224020774664338</v>
       </c>
       <c r="H108" t="n">
         <v>0.6</v>
@@ -9655,13 +9655,13 @@
         <v>1.8375</v>
       </c>
       <c r="G115" t="n">
-        <v>1.70060696278217</v>
+        <v>1.72120843465298</v>
       </c>
       <c r="H115" t="n">
-        <v>3.7</v>
+        <v>3.8926699088953</v>
       </c>
       <c r="I115" t="n">
-        <v>3.51834</v>
+        <v>3.685</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -9672,7 +9672,7 @@
         <v>2.289</v>
       </c>
       <c r="N115" t="n">
-        <v>3.23058</v>
+        <v>3.52816</v>
       </c>
       <c r="O115" t="n">
         <v>1805147.179</v>
@@ -10315,7 +10315,7 @@
         <v>0.01647</v>
       </c>
       <c r="G123" t="n">
-        <v>0.0357926077046572</v>
+        <v>0.0358134441165948</v>
       </c>
       <c r="H123" t="n">
         <v>0.175600608139038</v>
@@ -10326,7 +10326,7 @@
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
-        <v>0.00287</v>
+        <v>0.00302</v>
       </c>
       <c r="M123" t="n">
         <v>0.0813</v>
@@ -10396,7 +10396,7 @@
         <v>0.01647</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0357926077046572</v>
+        <v>0.0358134441165948</v>
       </c>
       <c r="H124" t="n">
         <v>0.175600608139038</v>
@@ -10407,7 +10407,7 @@
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
-        <v>0.00287</v>
+        <v>0.00302</v>
       </c>
       <c r="M124" t="n">
         <v>0.0813</v>
@@ -10477,7 +10477,7 @@
         <v>0.1639</v>
       </c>
       <c r="G125" t="n">
-        <v>0.177614742381274</v>
+        <v>0.177633838338015</v>
       </c>
       <c r="H125" t="n">
         <v>0.533</v>
@@ -10558,7 +10558,7 @@
         <v>0.1639</v>
       </c>
       <c r="G126" t="n">
-        <v>0.177614742381274</v>
+        <v>0.177633838338015</v>
       </c>
       <c r="H126" t="n">
         <v>0.533</v>
@@ -10712,7 +10712,7 @@
         <v>0.219</v>
       </c>
       <c r="G128" t="n">
-        <v>0.243448053855617</v>
+        <v>0.243470774664338</v>
       </c>
       <c r="H128" t="n">
         <v>0.6</v>
@@ -10789,7 +10789,7 @@
         <v>0.219</v>
       </c>
       <c r="G129" t="n">
-        <v>0.243448053855617</v>
+        <v>0.243470774664338</v>
       </c>
       <c r="H129" t="n">
         <v>0.6</v>
@@ -11336,10 +11336,10 @@
         <v>1.9</v>
       </c>
       <c r="G136" t="n">
-        <v>1.54669105835579</v>
+        <v>1.56795709383533</v>
       </c>
       <c r="H136" t="n">
-        <v>3.2334228090294</v>
+        <v>3.8926699088953</v>
       </c>
       <c r="I136" t="n">
         <v>3.1717</v>
@@ -11996,7 +11996,7 @@
         <v>0.02065</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0412431331754603</v>
+        <v>0.0412716908977309</v>
       </c>
       <c r="H144" t="n">
         <v>0.175600608139038</v>
@@ -12077,7 +12077,7 @@
         <v>0.02065</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0412431331754603</v>
+        <v>0.0412716908977309</v>
       </c>
       <c r="H145" t="n">
         <v>0.175600608139038</v>
@@ -12158,7 +12158,7 @@
         <v>0.1645</v>
       </c>
       <c r="G146" t="n">
-        <v>0.185638075714607</v>
+        <v>0.185657171671349</v>
       </c>
       <c r="H146" t="n">
         <v>0.533</v>
@@ -12239,7 +12239,7 @@
         <v>0.1645</v>
       </c>
       <c r="G147" t="n">
-        <v>0.185638075714607</v>
+        <v>0.185657171671349</v>
       </c>
       <c r="H147" t="n">
         <v>0.533</v>
@@ -12393,7 +12393,7 @@
         <v>0.2325</v>
       </c>
       <c r="G149" t="n">
-        <v>0.257581387188951</v>
+        <v>0.257604107997671</v>
       </c>
       <c r="H149" t="n">
         <v>0.6</v>
@@ -12470,7 +12470,7 @@
         <v>0.2325</v>
       </c>
       <c r="G150" t="n">
-        <v>0.257581387188951</v>
+        <v>0.257604107997671</v>
       </c>
       <c r="H150" t="n">
         <v>0.6</v>
@@ -13677,7 +13677,7 @@
         <v>0.02771</v>
       </c>
       <c r="G165" t="n">
-        <v>0.0436083088204377</v>
+        <v>0.0436319446965212</v>
       </c>
       <c r="H165" t="n">
         <v>0.175600608139038</v>
@@ -13758,7 +13758,7 @@
         <v>0.02771</v>
       </c>
       <c r="G166" t="n">
-        <v>0.0436083088204377</v>
+        <v>0.0436319446965212</v>
       </c>
       <c r="H166" t="n">
         <v>0.175600608139038</v>
@@ -15277,7 +15277,7 @@
         <v>0.03181</v>
       </c>
       <c r="G185" t="n">
-        <v>0.047361324471996</v>
+        <v>0.0473738674463996</v>
       </c>
       <c r="H185" t="n">
         <v>0.175600608139038</v>
@@ -15358,7 +15358,7 @@
         <v>0.03181</v>
       </c>
       <c r="G186" t="n">
-        <v>0.047361324471996</v>
+        <v>0.0473738674463996</v>
       </c>
       <c r="H186" t="n">
         <v>0.175600608139038</v>
@@ -16877,7 +16877,7 @@
         <v>0.05094</v>
       </c>
       <c r="G205" t="n">
-        <v>0.0575264473096322</v>
+        <v>0.057536720845082</v>
       </c>
       <c r="H205" t="n">
         <v>0.193837164757793</v>
@@ -16958,7 +16958,7 @@
         <v>0.05094</v>
       </c>
       <c r="G206" t="n">
-        <v>0.0575264473096322</v>
+        <v>0.057536720845082</v>
       </c>
       <c r="H206" t="n">
         <v>0.193837164757793</v>
@@ -17710,6 +17710,1606 @@
         </is>
       </c>
     </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.4628</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.4635</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.55685</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>16</v>
+      </c>
+      <c r="G217" t="n">
+        <v>23.9262264150943</v>
+      </c>
+      <c r="H217" t="n">
+        <v>175</v>
+      </c>
+      <c r="I217" t="n">
+        <v>75</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>10</v>
+      </c>
+      <c r="M217" t="n">
+        <v>40.205</v>
+      </c>
+      <c r="N217" t="n">
+        <v>71.3</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G218" t="n">
+        <v>0.0269310344827586</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M218" t="n">
+        <v>0.04064</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0.04786</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G219" t="n">
+        <v>0.0269310344827586</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="M219" t="n">
+        <v>0.04064</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0.04786</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>110</v>
+      </c>
+      <c r="G220" t="n">
+        <v>168.655172413793</v>
+      </c>
+      <c r="H220" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I220" t="n">
+        <v>756.2</v>
+      </c>
+      <c r="J220" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K220" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L220" t="n">
+        <v>140</v>
+      </c>
+      <c r="M220" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="N220" t="n">
+        <v>457.4</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>110</v>
+      </c>
+      <c r="G221" t="n">
+        <v>168.655172413793</v>
+      </c>
+      <c r="H221" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I221" t="n">
+        <v>756.2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K221" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L221" t="n">
+        <v>140</v>
+      </c>
+      <c r="M221" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="N221" t="n">
+        <v>457.4</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>110</v>
+      </c>
+      <c r="G222" t="n">
+        <v>168.655172413793</v>
+      </c>
+      <c r="H222" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I222" t="n">
+        <v>756.2</v>
+      </c>
+      <c r="J222" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K222" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L222" t="n">
+        <v>140</v>
+      </c>
+      <c r="M222" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="N222" t="n">
+        <v>457.4</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>110</v>
+      </c>
+      <c r="G223" t="n">
+        <v>168.655172413793</v>
+      </c>
+      <c r="H223" t="n">
+        <v>1100</v>
+      </c>
+      <c r="I223" t="n">
+        <v>756.2</v>
+      </c>
+      <c r="J223" t="n">
+        <v>6.89655172413793</v>
+      </c>
+      <c r="K223" t="n">
+        <v>13.7931034482759</v>
+      </c>
+      <c r="L223" t="n">
+        <v>140</v>
+      </c>
+      <c r="M223" t="n">
+        <v>249.2</v>
+      </c>
+      <c r="N223" t="n">
+        <v>457.4</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>110.91</v>
+      </c>
+      <c r="G224" t="n">
+        <v>110.96</v>
+      </c>
+      <c r="H224" t="n">
+        <v>118</v>
+      </c>
+      <c r="I224" t="n">
+        <v>118</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>107.955</v>
+      </c>
+      <c r="M224" t="n">
+        <v>117.9615</v>
+      </c>
+      <c r="N224" t="n">
+        <v>118</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.05854</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.0619313807672213</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.221302897691293</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.16946</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.01144</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.1072</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.12688</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.05854</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.0619313807672213</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.221302897691293</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.16946</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.01144</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.1072</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.12688</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>0.1735</v>
+      </c>
+      <c r="G227" t="n">
+        <v>0.191431034482759</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="M227" t="n">
+        <v>0.29028</v>
+      </c>
+      <c r="N227" t="n">
+        <v>0.36662</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.1735</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.191431034482759</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.569</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.4096</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.1155</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.29028</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.36662</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="G229" t="n">
+        <v>4.7678</v>
+      </c>
+      <c r="H229" t="n">
+        <v>6.519</v>
+      </c>
+      <c r="I229" t="n">
+        <v>6.519</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="M229" t="n">
+        <v>5.99085</v>
+      </c>
+      <c r="N229" t="n">
+        <v>6.519</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.299864406779661</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.49882</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.57134</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.299864406779661</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0.8139999999999999</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.6177</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.49882</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.57134</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.448793103448276</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.6464</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.7458</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.448793103448276</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.6464</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.7458</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F234" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="G234" t="n">
+        <v>0.0473620689655172</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0.0856</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="M234" t="n">
+        <v>0.06628000000000001</v>
+      </c>
+      <c r="N234" t="n">
+        <v>0.08072</v>
+      </c>
+      <c r="O234" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P234" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q234" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S234" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Mangawhero at d/s Ohakune STP</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr"/>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F235" t="n">
+        <v>0.0445</v>
+      </c>
+      <c r="G235" t="n">
+        <v>0.0473620689655172</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0.0856</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0.06628000000000001</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0.08072</v>
+      </c>
+      <c r="O235" t="n">
+        <v>1805147.179</v>
+      </c>
+      <c r="P235" t="n">
+        <v>5635222.139</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T235" t="inlineStr">
+        <is>
+          <t>Whau_3d</t>
+        </is>
+      </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
+++ b/state_results/Rivers/MangawheroatdsOhakuneSTP_9535884ab5.xlsx
@@ -4920,13 +4920,13 @@
         <v>1.575</v>
       </c>
       <c r="G56" t="n">
-        <v>1.59049282410642</v>
+        <v>1.56233586368402</v>
       </c>
       <c r="H56" t="n">
-        <v>3.8926699088953</v>
+        <v>3.7</v>
       </c>
       <c r="I56" t="n">
-        <v>3.58</v>
+        <v>3.19</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -4937,7 +4937,7 @@
         <v>2.2044</v>
       </c>
       <c r="N56" t="n">
-        <v>2.974</v>
+        <v>2.56191</v>
       </c>
       <c r="O56" t="n">
         <v>1805147.179</v>
@@ -6370,13 +6370,13 @@
         <v>1.55</v>
       </c>
       <c r="G74" t="n">
-        <v>1.60550361508288</v>
+        <v>1.57794573892479</v>
       </c>
       <c r="H74" t="n">
-        <v>3.8926699088953</v>
+        <v>3.7</v>
       </c>
       <c r="I74" t="n">
-        <v>3.5725</v>
+        <v>3.2406</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
@@ -6387,7 +6387,7 @@
         <v>2.301</v>
       </c>
       <c r="N74" t="n">
-        <v>3.16364</v>
+        <v>3.048</v>
       </c>
       <c r="O74" t="n">
         <v>1805147.179</v>
@@ -7974,13 +7974,13 @@
         <v>1.6</v>
       </c>
       <c r="G94" t="n">
-        <v>1.61446674772238</v>
+        <v>1.58208624323663</v>
       </c>
       <c r="H94" t="n">
-        <v>3.8926699088953</v>
+        <v>3.7</v>
       </c>
       <c r="I94" t="n">
-        <v>3.625</v>
+        <v>3.368</v>
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
@@ -7991,7 +7991,7 @@
         <v>2.247</v>
       </c>
       <c r="N94" t="n">
-        <v>3.2952</v>
+        <v>2.9858</v>
       </c>
       <c r="O94" t="n">
         <v>1805147.179</v>
@@ -9655,13 +9655,13 @@
         <v>1.8375</v>
       </c>
       <c r="G115" t="n">
-        <v>1.72120843465298</v>
+        <v>1.68073280404578</v>
       </c>
       <c r="H115" t="n">
-        <v>3.8926699088953</v>
+        <v>3.7</v>
       </c>
       <c r="I115" t="n">
-        <v>3.685</v>
+        <v>3.5136</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -9669,10 +9669,10 @@
         <v>2.125</v>
       </c>
       <c r="M115" t="n">
-        <v>2.289</v>
+        <v>2.27085</v>
       </c>
       <c r="N115" t="n">
-        <v>3.52816</v>
+        <v>3.16884</v>
       </c>
       <c r="O115" t="n">
         <v>1805147.179</v>
@@ -11336,13 +11336,13 @@
         <v>1.9</v>
       </c>
       <c r="G136" t="n">
-        <v>1.56795709383533</v>
+        <v>1.52617579772468</v>
       </c>
       <c r="H136" t="n">
-        <v>3.8926699088953</v>
+        <v>3.186</v>
       </c>
       <c r="I136" t="n">
-        <v>3.1717</v>
+        <v>2.88487</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -11353,7 +11353,7 @@
         <v>2.2998</v>
       </c>
       <c r="N136" t="n">
-        <v>2.90572</v>
+        <v>2.6035</v>
       </c>
       <c r="O136" t="n">
         <v>1805147.179</v>
